--- a/data/ons-infection-survey/covid19infectionsurveyadhoc30december.xlsx
+++ b/data/ons-infection-survey/covid19infectionsurveyadhoc30december.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Downloads\_covid_19\data\ons\Weekly COVID surveillance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\covid-stats\data\ons-infection-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ABD25F-C407-4555-AB19-38E97020FE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0163BA8-893F-4D30-A107-59B5AA060DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{26FFE9C4-E2F4-4619-94E3-A2A8AA9397DE}"/>
   </bookViews>
@@ -2176,6 +2176,27 @@
     <xf numFmtId="0" fontId="43" fillId="33" borderId="27" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="28" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="108" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="19" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="108" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="16" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="26" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2190,27 +2211,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="31" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="108" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="16" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="28" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="26" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="108" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="19" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="17" xfId="108" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3144,7 +3144,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4095,7 +4095,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5046,7 +5046,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5997,7 +5997,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6948,7 +6948,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7899,7 +7899,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8850,7 +8850,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9801,7 +9801,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10757,7 +10757,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11708,7 +11708,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd\ mmmm\ yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd\ mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -26398,485 +26398,485 @@
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173" t="s">
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173" t="s">
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="173"/>
-      <c r="AJ3" s="173"/>
-      <c r="AK3" s="173"/>
-      <c r="AL3" s="173" t="s">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="AM3" s="173"/>
-      <c r="AN3" s="173"/>
-      <c r="AO3" s="173"/>
-      <c r="AP3" s="173"/>
-      <c r="AQ3" s="173"/>
-      <c r="AR3" s="173"/>
-      <c r="AS3" s="173"/>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173" t="s">
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="180"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="180"/>
+      <c r="AS3" s="180"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="AV3" s="173"/>
-      <c r="AW3" s="173"/>
-      <c r="AX3" s="173"/>
-      <c r="AY3" s="173"/>
-      <c r="AZ3" s="173"/>
-      <c r="BA3" s="173"/>
-      <c r="BB3" s="173"/>
-      <c r="BC3" s="173"/>
-      <c r="BD3" s="173" t="s">
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="180"/>
+      <c r="AX3" s="180"/>
+      <c r="AY3" s="180"/>
+      <c r="AZ3" s="180"/>
+      <c r="BA3" s="180"/>
+      <c r="BB3" s="180"/>
+      <c r="BC3" s="180"/>
+      <c r="BD3" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="BE3" s="173"/>
-      <c r="BF3" s="173"/>
-      <c r="BG3" s="173"/>
-      <c r="BH3" s="173"/>
-      <c r="BI3" s="173"/>
-      <c r="BJ3" s="173"/>
-      <c r="BK3" s="173"/>
-      <c r="BL3" s="173"/>
-      <c r="BM3" s="173" t="s">
+      <c r="BE3" s="180"/>
+      <c r="BF3" s="180"/>
+      <c r="BG3" s="180"/>
+      <c r="BH3" s="180"/>
+      <c r="BI3" s="180"/>
+      <c r="BJ3" s="180"/>
+      <c r="BK3" s="180"/>
+      <c r="BL3" s="180"/>
+      <c r="BM3" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="BN3" s="173"/>
-      <c r="BO3" s="173"/>
-      <c r="BP3" s="173"/>
-      <c r="BQ3" s="173"/>
-      <c r="BR3" s="173"/>
-      <c r="BS3" s="173"/>
-      <c r="BT3" s="173"/>
-      <c r="BU3" s="173"/>
-      <c r="BV3" s="173" t="s">
+      <c r="BN3" s="180"/>
+      <c r="BO3" s="180"/>
+      <c r="BP3" s="180"/>
+      <c r="BQ3" s="180"/>
+      <c r="BR3" s="180"/>
+      <c r="BS3" s="180"/>
+      <c r="BT3" s="180"/>
+      <c r="BU3" s="180"/>
+      <c r="BV3" s="180" t="s">
         <v>76</v>
       </c>
-      <c r="BW3" s="173"/>
-      <c r="BX3" s="173"/>
-      <c r="BY3" s="173"/>
-      <c r="BZ3" s="173"/>
-      <c r="CA3" s="173"/>
-      <c r="CB3" s="173"/>
-      <c r="CC3" s="173"/>
-      <c r="CD3" s="173"/>
+      <c r="BW3" s="180"/>
+      <c r="BX3" s="180"/>
+      <c r="BY3" s="180"/>
+      <c r="BZ3" s="180"/>
+      <c r="CA3" s="180"/>
+      <c r="CB3" s="180"/>
+      <c r="CC3" s="180"/>
+      <c r="CD3" s="180"/>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180" t="s">
+      <c r="D4" s="178"/>
+      <c r="E4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="179"/>
-      <c r="H4" s="180" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="183" t="s">
+      <c r="I4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="184"/>
-      <c r="K4" s="178" t="s">
+      <c r="J4" s="176"/>
+      <c r="K4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="178" t="s">
+      <c r="L4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="180" t="s">
+      <c r="M4" s="178"/>
+      <c r="N4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="178" t="s">
+      <c r="O4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="180" t="s">
+      <c r="P4" s="178"/>
+      <c r="Q4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="183" t="s">
+      <c r="R4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="184"/>
-      <c r="T4" s="178" t="s">
+      <c r="S4" s="176"/>
+      <c r="T4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="178" t="s">
+      <c r="U4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="179"/>
-      <c r="W4" s="180" t="s">
+      <c r="V4" s="178"/>
+      <c r="W4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="178" t="s">
+      <c r="X4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="180" t="s">
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="183" t="s">
+      <c r="AA4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="184"/>
-      <c r="AC4" s="178" t="s">
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="AD4" s="178" t="s">
+      <c r="AD4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="180" t="s">
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="AG4" s="178" t="s">
+      <c r="AG4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="179"/>
-      <c r="AI4" s="180" t="s">
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="AJ4" s="183" t="s">
+      <c r="AJ4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="184"/>
-      <c r="AL4" s="178" t="s">
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="AM4" s="178" t="s">
+      <c r="AM4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AN4" s="179"/>
-      <c r="AO4" s="180" t="s">
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="AP4" s="178" t="s">
+      <c r="AP4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AQ4" s="179"/>
-      <c r="AR4" s="180" t="s">
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="AS4" s="183" t="s">
+      <c r="AS4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="AT4" s="184"/>
-      <c r="AU4" s="178" t="s">
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="AV4" s="178" t="s">
+      <c r="AV4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AW4" s="179"/>
-      <c r="AX4" s="180" t="s">
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="AY4" s="178" t="s">
+      <c r="AY4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="180" t="s">
+      <c r="AZ4" s="178"/>
+      <c r="BA4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="BB4" s="183" t="s">
+      <c r="BB4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="184"/>
-      <c r="BD4" s="178" t="s">
+      <c r="BC4" s="176"/>
+      <c r="BD4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="BE4" s="178" t="s">
+      <c r="BE4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BF4" s="179"/>
-      <c r="BG4" s="180" t="s">
+      <c r="BF4" s="178"/>
+      <c r="BG4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="BH4" s="178" t="s">
+      <c r="BH4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BI4" s="179"/>
-      <c r="BJ4" s="180" t="s">
+      <c r="BI4" s="178"/>
+      <c r="BJ4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="BK4" s="183" t="s">
+      <c r="BK4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="BL4" s="184"/>
-      <c r="BM4" s="178" t="s">
+      <c r="BL4" s="176"/>
+      <c r="BM4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="BN4" s="178" t="s">
+      <c r="BN4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BO4" s="179"/>
-      <c r="BP4" s="180" t="s">
+      <c r="BO4" s="178"/>
+      <c r="BP4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="BQ4" s="178" t="s">
+      <c r="BQ4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BR4" s="179"/>
-      <c r="BS4" s="180" t="s">
+      <c r="BR4" s="178"/>
+      <c r="BS4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="BT4" s="183" t="s">
+      <c r="BT4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="BU4" s="184"/>
-      <c r="BV4" s="178" t="s">
+      <c r="BU4" s="176"/>
+      <c r="BV4" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="BW4" s="178" t="s">
+      <c r="BW4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BX4" s="179"/>
-      <c r="BY4" s="180" t="s">
+      <c r="BX4" s="178"/>
+      <c r="BY4" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="BZ4" s="178" t="s">
+      <c r="BZ4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="CA4" s="179"/>
-      <c r="CB4" s="180" t="s">
+      <c r="CA4" s="178"/>
+      <c r="CB4" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="CC4" s="183" t="s">
+      <c r="CC4" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="CD4" s="184"/>
+      <c r="CD4" s="176"/>
     </row>
     <row r="5" spans="1:82" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175"/>
-      <c r="B5" s="177"/>
+      <c r="A5" s="182"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="181"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="181"/>
+      <c r="H5" s="174"/>
       <c r="I5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="182"/>
+      <c r="K5" s="179"/>
       <c r="L5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="181"/>
+      <c r="N5" s="174"/>
       <c r="O5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="181"/>
+      <c r="Q5" s="174"/>
       <c r="R5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="S5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="182"/>
+      <c r="T5" s="179"/>
       <c r="U5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="V5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="181"/>
+      <c r="W5" s="174"/>
       <c r="X5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="Y5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="181"/>
+      <c r="Z5" s="174"/>
       <c r="AA5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="AB5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="182"/>
+      <c r="AC5" s="179"/>
       <c r="AD5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AE5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="181"/>
+      <c r="AF5" s="174"/>
       <c r="AG5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AH5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AI5" s="181"/>
+      <c r="AI5" s="174"/>
       <c r="AJ5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="AK5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="182"/>
+      <c r="AL5" s="179"/>
       <c r="AM5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AN5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AO5" s="181"/>
+      <c r="AO5" s="174"/>
       <c r="AP5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AQ5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="181"/>
+      <c r="AR5" s="174"/>
       <c r="AS5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="AT5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AU5" s="182"/>
+      <c r="AU5" s="179"/>
       <c r="AV5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AW5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="181"/>
+      <c r="AX5" s="174"/>
       <c r="AY5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AZ5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BA5" s="181"/>
+      <c r="BA5" s="174"/>
       <c r="BB5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="BC5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="BD5" s="182"/>
+      <c r="BD5" s="179"/>
       <c r="BE5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="BF5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="BG5" s="181"/>
+      <c r="BG5" s="174"/>
       <c r="BH5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="BI5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BJ5" s="181"/>
+      <c r="BJ5" s="174"/>
       <c r="BK5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="BL5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="BM5" s="182"/>
+      <c r="BM5" s="179"/>
       <c r="BN5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="BO5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="BP5" s="181"/>
+      <c r="BP5" s="174"/>
       <c r="BQ5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="BR5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BS5" s="181"/>
+      <c r="BS5" s="174"/>
       <c r="BT5" s="110" t="s">
         <v>13</v>
       </c>
       <c r="BU5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="BV5" s="182"/>
+      <c r="BV5" s="179"/>
       <c r="BW5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="BX5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="BY5" s="181"/>
+      <c r="BY5" s="174"/>
       <c r="BZ5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="CA5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="CB5" s="181"/>
+      <c r="CB5" s="174"/>
       <c r="CC5" s="110" t="s">
         <v>13</v>
       </c>
@@ -37993,6 +37993,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AU3:BC3"/>
+    <mergeCell ref="BD3:BL3"/>
+    <mergeCell ref="BM3:BU3"/>
+    <mergeCell ref="BV3:CD3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:S3"/>
+    <mergeCell ref="T3:AB3"/>
+    <mergeCell ref="AC3:AK3"/>
+    <mergeCell ref="AL3:AT3"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="BN4:BO4"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="BS4:BS5"/>
     <mergeCell ref="BT4:BU4"/>
     <mergeCell ref="CB4:CB5"/>
@@ -38009,54 +38057,6 @@
     <mergeCell ref="BY4:BY5"/>
     <mergeCell ref="AX4:AX5"/>
     <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="BN4:BO4"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AU3:BC3"/>
-    <mergeCell ref="BD3:BL3"/>
-    <mergeCell ref="BM3:BU3"/>
-    <mergeCell ref="BV3:CD3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:S3"/>
-    <mergeCell ref="T3:AB3"/>
-    <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="AL3:AT3"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AE4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A55" r:id="rId1" xr:uid="{1813071E-BAC8-44CE-8980-77C7D7ACACB8}"/>
@@ -38076,7 +38076,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38136,368 +38136,368 @@
     </row>
     <row r="3" spans="1:61" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173" t="s">
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173" t="s">
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173" t="s">
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173" t="s">
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173" t="s">
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="173"/>
-      <c r="AJ3" s="173"/>
-      <c r="AK3" s="173"/>
-      <c r="AL3" s="173" t="s">
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="180"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="AM3" s="173"/>
-      <c r="AN3" s="173"/>
-      <c r="AO3" s="173"/>
-      <c r="AP3" s="173"/>
-      <c r="AQ3" s="173"/>
-      <c r="AR3" s="173" t="s">
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="180"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="AS3" s="173"/>
-      <c r="AT3" s="173"/>
-      <c r="AU3" s="173"/>
-      <c r="AV3" s="173"/>
-      <c r="AW3" s="173"/>
-      <c r="AX3" s="173" t="s">
+      <c r="AS3" s="180"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="180"/>
+      <c r="AX3" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="AY3" s="173"/>
-      <c r="AZ3" s="173"/>
-      <c r="BA3" s="173"/>
-      <c r="BB3" s="173"/>
-      <c r="BC3" s="173"/>
-      <c r="BD3" s="173" t="s">
+      <c r="AY3" s="180"/>
+      <c r="AZ3" s="180"/>
+      <c r="BA3" s="180"/>
+      <c r="BB3" s="180"/>
+      <c r="BC3" s="180"/>
+      <c r="BD3" s="180" t="s">
         <v>76</v>
       </c>
-      <c r="BE3" s="173"/>
-      <c r="BF3" s="173"/>
-      <c r="BG3" s="173"/>
-      <c r="BH3" s="173"/>
-      <c r="BI3" s="173"/>
+      <c r="BE3" s="180"/>
+      <c r="BF3" s="180"/>
+      <c r="BG3" s="180"/>
+      <c r="BH3" s="180"/>
+      <c r="BI3" s="180"/>
     </row>
     <row r="4" spans="1:61" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="176" t="s">
+      <c r="D4" s="178"/>
+      <c r="E4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="179"/>
-      <c r="H4" s="176" t="s">
+      <c r="G4" s="178"/>
+      <c r="H4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="178" t="s">
+      <c r="I4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="179"/>
-      <c r="K4" s="176" t="s">
+      <c r="J4" s="178"/>
+      <c r="K4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="178" t="s">
+      <c r="L4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="176" t="s">
+      <c r="M4" s="178"/>
+      <c r="N4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="178" t="s">
+      <c r="O4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="176" t="s">
+      <c r="P4" s="178"/>
+      <c r="Q4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="178" t="s">
+      <c r="R4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="179"/>
-      <c r="T4" s="176" t="s">
+      <c r="S4" s="178"/>
+      <c r="T4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="178" t="s">
+      <c r="U4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="179"/>
-      <c r="W4" s="176" t="s">
+      <c r="V4" s="178"/>
+      <c r="W4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="178" t="s">
+      <c r="X4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="179"/>
-      <c r="Z4" s="176" t="s">
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="178" t="s">
+      <c r="AA4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="179"/>
-      <c r="AC4" s="176" t="s">
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="AD4" s="178" t="s">
+      <c r="AD4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="176" t="s">
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="AG4" s="178" t="s">
+      <c r="AG4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="179"/>
-      <c r="AI4" s="176" t="s">
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="AJ4" s="178" t="s">
+      <c r="AJ4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="179"/>
-      <c r="AL4" s="176" t="s">
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="AM4" s="178" t="s">
+      <c r="AM4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AN4" s="179"/>
-      <c r="AO4" s="176" t="s">
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="AP4" s="178" t="s">
+      <c r="AP4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AQ4" s="179"/>
-      <c r="AR4" s="176" t="s">
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="AS4" s="178" t="s">
+      <c r="AS4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AT4" s="179"/>
-      <c r="AU4" s="176" t="s">
+      <c r="AT4" s="178"/>
+      <c r="AU4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="AV4" s="178" t="s">
+      <c r="AV4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AW4" s="179"/>
-      <c r="AX4" s="176" t="s">
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="AY4" s="178" t="s">
+      <c r="AY4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="176" t="s">
+      <c r="AZ4" s="178"/>
+      <c r="BA4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="BB4" s="178" t="s">
+      <c r="BB4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="179"/>
-      <c r="BD4" s="176" t="s">
+      <c r="BC4" s="178"/>
+      <c r="BD4" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="BE4" s="178" t="s">
+      <c r="BE4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BF4" s="179"/>
-      <c r="BG4" s="176" t="s">
+      <c r="BF4" s="178"/>
+      <c r="BG4" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="BH4" s="178" t="s">
+      <c r="BH4" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="BI4" s="179"/>
+      <c r="BI4" s="178"/>
     </row>
     <row r="5" spans="1:61" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="186"/>
-      <c r="B5" s="177"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="177"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="177"/>
+      <c r="H5" s="184"/>
       <c r="I5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="177"/>
+      <c r="K5" s="184"/>
       <c r="L5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="177"/>
+      <c r="N5" s="184"/>
       <c r="O5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="177"/>
+      <c r="Q5" s="184"/>
       <c r="R5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="S5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="177"/>
+      <c r="T5" s="184"/>
       <c r="U5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="V5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="177"/>
+      <c r="W5" s="184"/>
       <c r="X5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="Y5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="177"/>
+      <c r="Z5" s="184"/>
       <c r="AA5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AB5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="177"/>
+      <c r="AC5" s="184"/>
       <c r="AD5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AE5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="177"/>
+      <c r="AF5" s="184"/>
       <c r="AG5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AH5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AI5" s="177"/>
+      <c r="AI5" s="184"/>
       <c r="AJ5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AK5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="177"/>
+      <c r="AL5" s="184"/>
       <c r="AM5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AN5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AO5" s="177"/>
+      <c r="AO5" s="184"/>
       <c r="AP5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AQ5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="177"/>
+      <c r="AR5" s="184"/>
       <c r="AS5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AT5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AU5" s="177"/>
+      <c r="AU5" s="184"/>
       <c r="AV5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AW5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="177"/>
+      <c r="AX5" s="184"/>
       <c r="AY5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="AZ5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="BA5" s="177"/>
+      <c r="BA5" s="184"/>
       <c r="BB5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="BC5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="BD5" s="177"/>
+      <c r="BD5" s="184"/>
       <c r="BE5" s="52" t="s">
         <v>13</v>
       </c>
       <c r="BF5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="BG5" s="177"/>
+      <c r="BG5" s="184"/>
       <c r="BH5" s="52" t="s">
         <v>13</v>
       </c>
@@ -50654,6 +50654,42 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AK3"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="BB4:BC4"/>
     <mergeCell ref="AU4:AU5"/>
@@ -50669,42 +50705,6 @@
     <mergeCell ref="BH4:BI4"/>
     <mergeCell ref="BA4:BA5"/>
     <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AK3"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="0.2" bottom="0.2" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="2" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -50924,21 +50924,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -51052,10 +51037,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CDF6593-8616-4777-9093-2DB3612CC14E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB0ECAFC-841C-430B-93F8-B74DB7C3F14B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -51070,16 +51077,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB0ECAFC-841C-430B-93F8-B74DB7C3F14B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CDF6593-8616-4777-9093-2DB3612CC14E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
